--- a/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04290372521265196</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01724273168842454</v>
+        <v>0.005765262920410562</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1562785521740769</v>
+        <v>0.3690121261547427</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375011</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5278852000000001</v>
+        <v>0.3948917987044045</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.180562719878942</v>
+        <v>0.570238</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04628728012105799</v>
+        <v>0.08267716666666668</v>
       </c>
       <c r="N2" t="n">
-        <v>4.710545059265288</v>
+        <v>12.85277051881641</v>
       </c>
       <c r="O2" t="n">
-        <v>3.559802566732886</v>
+        <v>3.502784081771334</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2107152095746961</v>
+        <v>0.01740867925716962</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.05207980094209073</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.380281325261747</v>
+        <v>0.2116798874185796</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4249091625411382</v>
+        <v>0.5409518166666667</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8956143967877247</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1454038032122754</v>
+        <v>0.04749408333333331</v>
       </c>
       <c r="N2" t="n">
-        <v>9.457916841854056</v>
+        <v>5.037181453793078</v>
       </c>
       <c r="O2" t="n">
-        <v>4.739785358845269</v>
+        <v>2.225940329859119</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2263741335242236</v>
+        <v>0.09007993945815861</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.02341521357332227</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8445575566806565</v>
+        <v>0.1667813541380274</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.843296153673011</v>
+        <v>0.4591872012955962</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5944238833333333</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3048632561218493</v>
+        <v>0.05235633333333339</v>
       </c>
       <c r="N2" t="n">
-        <v>17.45165647791306</v>
+        <v>8.135963581684248</v>
       </c>
       <c r="O2" t="n">
-        <v>17.87458402983049</v>
+        <v>5.185675745307608</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005765262920410562</v>
+        <v>0.004605400000000093</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3690121261547427</v>
+        <v>0.3696322451519838</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3948917987044045</v>
+        <v>0.388768051676684</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.570238</v>
+        <v>0.5736454999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08267716666666668</v>
+        <v>0.082778</v>
       </c>
       <c r="N2" t="n">
-        <v>12.85277051881641</v>
+        <v>12.96177663458551</v>
       </c>
       <c r="O2" t="n">
-        <v>3.502784081771334</v>
+        <v>3.39354415621619</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01740867925716962</v>
+        <v>0.009315151539373345</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05207980094209073</v>
+        <v>0.07940568642667734</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2116798874185796</v>
+        <v>0.35180893228384</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5409518166666667</v>
+        <v>0.7374698220842428</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.1242953967812489</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04749408333333331</v>
+        <v>0.08217333333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>5.037181453793078</v>
+        <v>8.857386976801159</v>
       </c>
       <c r="O2" t="n">
-        <v>2.225940329859119</v>
+        <v>3.769864170149332</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09007993945815861</v>
+        <v>0.1014415319200664</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02341521357332227</v>
+        <v>0.01832281100914623</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1667813541380274</v>
+        <v>0.1561358999999998</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4591872012955962</v>
+        <v>0.4339826273285834</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05235633333333339</v>
+        <v>0.05117433794284604</v>
       </c>
       <c r="N2" t="n">
-        <v>8.135963581684248</v>
+        <v>8.609687601718868</v>
       </c>
       <c r="O2" t="n">
-        <v>5.185675745307608</v>
+        <v>5.540089747764068</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04290372521265196</v>
+        <v>0.2416427116109238</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01724273168842454</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.7036920730747721</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1562785521740769</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2556715390075521</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375011</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063373</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5278852000000001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.180562719878942</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04628728012105799</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.710545059265288</v>
+        <v>6.43198250994508</v>
       </c>
       <c r="O2" t="n">
-        <v>3.559802566732886</v>
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2107152095746961</v>
+        <v>0.3042553803728587</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.154915496709624</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.380281325261747</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2601295587705454</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.138694748506033</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4249091625411382</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8956143967877247</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1454038032122754</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.457916841854056</v>
+        <v>24.12337717878337</v>
       </c>
       <c r="O2" t="n">
-        <v>4.739785358845269</v>
+        <v>6.678118319630853</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2263741335242236</v>
+        <v>1.096218212501815</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.350797602110544</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8445575566806565</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.04927038289626928</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1268570634555538</v>
       </c>
       <c r="I2" t="n">
-        <v>1.843296153673011</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5944238833333333</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3048632561218493</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>17.45165647791306</v>
+        <v>26.91086884841879</v>
       </c>
       <c r="O2" t="n">
-        <v>17.87458402983049</v>
+        <v>7.254013973705504</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2416427116109238</v>
+        <v>0.241642711610924</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7036920730747721</v>
+        <v>0.703692073074772</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2556715390075521</v>
+        <v>0.2556715390075522</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06880566916063373</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3042553803728587</v>
+        <v>0.3042553803728585</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2601295587705454</v>
+        <v>0.2601295587705453</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.12337717878337</v>
+        <v>24.12337717878326</v>
       </c>
       <c r="O2" t="n">
         <v>6.678118319630853</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.096218212501815</v>
+        <v>1.096218212501823</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04927038289626928</v>
+        <v>0.04927038289626107</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1268570634555538</v>
+        <v>0.1268570634555535</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.91086884841879</v>
+        <v>26.91086884841878</v>
       </c>
       <c r="O2" t="n">
-        <v>7.254013973705504</v>
+        <v>7.254013973705533</v>
       </c>
     </row>
   </sheetData>

--- a/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[3_low_electricity_prices]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004605400000000093</v>
+        <v>0.004605400000000041</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0.082778</v>
       </c>
       <c r="N2" t="n">
-        <v>12.96177663458551</v>
+        <v>12.96177663458552</v>
       </c>
       <c r="O2" t="n">
-        <v>3.39354415621619</v>
+        <v>3.393544156216191</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009315151539373345</v>
+        <v>0.009315151539373337</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07940568642667734</v>
+        <v>0.07940568642667739</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0.08217333333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>8.857386976801159</v>
+        <v>8.857386976801131</v>
       </c>
       <c r="O2" t="n">
-        <v>3.769864170149332</v>
+        <v>3.769864170149323</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1014415319200664</v>
+        <v>0.1014415319200653</v>
       </c>
       <c r="B2" t="n">
         <v>0.01832281100914623</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4339826273285834</v>
+        <v>0.4339826273285836</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05117433794284604</v>
+        <v>0.05117433794284643</v>
       </c>
       <c r="N2" t="n">
-        <v>8.609687601718868</v>
+        <v>8.609687601718946</v>
       </c>
       <c r="O2" t="n">
-        <v>5.540089747764068</v>
+        <v>5.54008974776406</v>
       </c>
     </row>
   </sheetData>
